--- a/LegacyDatabase/News.xlsx
+++ b/LegacyDatabase/News.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Cinema\LegacyDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3971F-479E-4358-B623-23EB8D94F75B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BAD784-7D04-47AB-A74C-4E0C34E8D020}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="News" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>Id</t>
   </si>
@@ -338,15 +338,620 @@
   </si>
   <si>
     <t>http://dummyimage.com/201x122.png/cc0000/ffffff</t>
+  </si>
+  <si>
+    <t>Title 1</t>
+  </si>
+  <si>
+    <t>Title 2</t>
+  </si>
+  <si>
+    <t>Title 3</t>
+  </si>
+  <si>
+    <t>Title 4</t>
+  </si>
+  <si>
+    <t>Title 5</t>
+  </si>
+  <si>
+    <t>Title 6</t>
+  </si>
+  <si>
+    <t>Title 7</t>
+  </si>
+  <si>
+    <t>Title 8</t>
+  </si>
+  <si>
+    <t>Title 9</t>
+  </si>
+  <si>
+    <t>Title 10</t>
+  </si>
+  <si>
+    <t>Title 11</t>
+  </si>
+  <si>
+    <t>Title 12</t>
+  </si>
+  <si>
+    <t>Title 13</t>
+  </si>
+  <si>
+    <t>Title 14</t>
+  </si>
+  <si>
+    <t>Title 15</t>
+  </si>
+  <si>
+    <t>Title 16</t>
+  </si>
+  <si>
+    <t>Title 17</t>
+  </si>
+  <si>
+    <t>Title 18</t>
+  </si>
+  <si>
+    <t>Title 19</t>
+  </si>
+  <si>
+    <t>Title 20</t>
+  </si>
+  <si>
+    <t>Title 21</t>
+  </si>
+  <si>
+    <t>Title 22</t>
+  </si>
+  <si>
+    <t>Title 23</t>
+  </si>
+  <si>
+    <t>Title 24</t>
+  </si>
+  <si>
+    <t>Title 25</t>
+  </si>
+  <si>
+    <t>Title 26</t>
+  </si>
+  <si>
+    <t>Title 27</t>
+  </si>
+  <si>
+    <t>Title 28</t>
+  </si>
+  <si>
+    <t>Title 29</t>
+  </si>
+  <si>
+    <t>Title 30</t>
+  </si>
+  <si>
+    <t>Title 31</t>
+  </si>
+  <si>
+    <t>Title 32</t>
+  </si>
+  <si>
+    <t>Title 33</t>
+  </si>
+  <si>
+    <t>Title 34</t>
+  </si>
+  <si>
+    <t>Title 35</t>
+  </si>
+  <si>
+    <t>Title 36</t>
+  </si>
+  <si>
+    <t>Title 37</t>
+  </si>
+  <si>
+    <t>Title 38</t>
+  </si>
+  <si>
+    <t>Title 39</t>
+  </si>
+  <si>
+    <t>Title 40</t>
+  </si>
+  <si>
+    <t>Title 41</t>
+  </si>
+  <si>
+    <t>Title 42</t>
+  </si>
+  <si>
+    <t>Title 43</t>
+  </si>
+  <si>
+    <t>Title 44</t>
+  </si>
+  <si>
+    <t>Title 45</t>
+  </si>
+  <si>
+    <t>Title 46</t>
+  </si>
+  <si>
+    <t>Title 47</t>
+  </si>
+  <si>
+    <t>Title 48</t>
+  </si>
+  <si>
+    <t>Title 49</t>
+  </si>
+  <si>
+    <t>Title 50</t>
+  </si>
+  <si>
+    <t>Title 51</t>
+  </si>
+  <si>
+    <t>Title 52</t>
+  </si>
+  <si>
+    <t>Title 53</t>
+  </si>
+  <si>
+    <t>Title 54</t>
+  </si>
+  <si>
+    <t>Title 55</t>
+  </si>
+  <si>
+    <t>Title 56</t>
+  </si>
+  <si>
+    <t>Title 57</t>
+  </si>
+  <si>
+    <t>Title 58</t>
+  </si>
+  <si>
+    <t>Title 59</t>
+  </si>
+  <si>
+    <t>Title 60</t>
+  </si>
+  <si>
+    <t>Title 61</t>
+  </si>
+  <si>
+    <t>Title 62</t>
+  </si>
+  <si>
+    <t>Title 63</t>
+  </si>
+  <si>
+    <t>Title 64</t>
+  </si>
+  <si>
+    <t>Title 65</t>
+  </si>
+  <si>
+    <t>Title 66</t>
+  </si>
+  <si>
+    <t>Title 67</t>
+  </si>
+  <si>
+    <t>Title 68</t>
+  </si>
+  <si>
+    <t>Title 69</t>
+  </si>
+  <si>
+    <t>Title 70</t>
+  </si>
+  <si>
+    <t>Title 71</t>
+  </si>
+  <si>
+    <t>Title 72</t>
+  </si>
+  <si>
+    <t>Title 73</t>
+  </si>
+  <si>
+    <t>Title 74</t>
+  </si>
+  <si>
+    <t>Title 75</t>
+  </si>
+  <si>
+    <t>Title 76</t>
+  </si>
+  <si>
+    <t>Title 77</t>
+  </si>
+  <si>
+    <t>Title 78</t>
+  </si>
+  <si>
+    <t>Title 79</t>
+  </si>
+  <si>
+    <t>Title 80</t>
+  </si>
+  <si>
+    <t>Title 81</t>
+  </si>
+  <si>
+    <t>Title 82</t>
+  </si>
+  <si>
+    <t>Title 83</t>
+  </si>
+  <si>
+    <t>Title 84</t>
+  </si>
+  <si>
+    <t>Title 85</t>
+  </si>
+  <si>
+    <t>Title 86</t>
+  </si>
+  <si>
+    <t>Title 87</t>
+  </si>
+  <si>
+    <t>Title 88</t>
+  </si>
+  <si>
+    <t>Title 89</t>
+  </si>
+  <si>
+    <t>Title 90</t>
+  </si>
+  <si>
+    <t>Title 91</t>
+  </si>
+  <si>
+    <t>Title 92</t>
+  </si>
+  <si>
+    <t>Title 93</t>
+  </si>
+  <si>
+    <t>Title 94</t>
+  </si>
+  <si>
+    <t>Title 95</t>
+  </si>
+  <si>
+    <t>Title 96</t>
+  </si>
+  <si>
+    <t>Title 97</t>
+  </si>
+  <si>
+    <t>Title 98</t>
+  </si>
+  <si>
+    <t>Title 99</t>
+  </si>
+  <si>
+    <t>Title 100</t>
+  </si>
+  <si>
+    <t>Description 1</t>
+  </si>
+  <si>
+    <t>Description 2</t>
+  </si>
+  <si>
+    <t>Description 3</t>
+  </si>
+  <si>
+    <t>Description 4</t>
+  </si>
+  <si>
+    <t>Description 5</t>
+  </si>
+  <si>
+    <t>Description 6</t>
+  </si>
+  <si>
+    <t>Description 7</t>
+  </si>
+  <si>
+    <t>Description 8</t>
+  </si>
+  <si>
+    <t>Description 9</t>
+  </si>
+  <si>
+    <t>Description 10</t>
+  </si>
+  <si>
+    <t>Description 11</t>
+  </si>
+  <si>
+    <t>Description 12</t>
+  </si>
+  <si>
+    <t>Description 13</t>
+  </si>
+  <si>
+    <t>Description 14</t>
+  </si>
+  <si>
+    <t>Description 15</t>
+  </si>
+  <si>
+    <t>Description 16</t>
+  </si>
+  <si>
+    <t>Description 17</t>
+  </si>
+  <si>
+    <t>Description 18</t>
+  </si>
+  <si>
+    <t>Description 19</t>
+  </si>
+  <si>
+    <t>Description 20</t>
+  </si>
+  <si>
+    <t>Description 21</t>
+  </si>
+  <si>
+    <t>Description 22</t>
+  </si>
+  <si>
+    <t>Description 23</t>
+  </si>
+  <si>
+    <t>Description 24</t>
+  </si>
+  <si>
+    <t>Description 25</t>
+  </si>
+  <si>
+    <t>Description 26</t>
+  </si>
+  <si>
+    <t>Description 27</t>
+  </si>
+  <si>
+    <t>Description 28</t>
+  </si>
+  <si>
+    <t>Description 29</t>
+  </si>
+  <si>
+    <t>Description 30</t>
+  </si>
+  <si>
+    <t>Description 31</t>
+  </si>
+  <si>
+    <t>Description 32</t>
+  </si>
+  <si>
+    <t>Description 33</t>
+  </si>
+  <si>
+    <t>Description 34</t>
+  </si>
+  <si>
+    <t>Description 35</t>
+  </si>
+  <si>
+    <t>Description 36</t>
+  </si>
+  <si>
+    <t>Description 37</t>
+  </si>
+  <si>
+    <t>Description 38</t>
+  </si>
+  <si>
+    <t>Description 39</t>
+  </si>
+  <si>
+    <t>Description 40</t>
+  </si>
+  <si>
+    <t>Description 41</t>
+  </si>
+  <si>
+    <t>Description 42</t>
+  </si>
+  <si>
+    <t>Description 43</t>
+  </si>
+  <si>
+    <t>Description 44</t>
+  </si>
+  <si>
+    <t>Description 45</t>
+  </si>
+  <si>
+    <t>Description 46</t>
+  </si>
+  <si>
+    <t>Description 47</t>
+  </si>
+  <si>
+    <t>Description 48</t>
+  </si>
+  <si>
+    <t>Description 49</t>
+  </si>
+  <si>
+    <t>Description 50</t>
+  </si>
+  <si>
+    <t>Description 51</t>
+  </si>
+  <si>
+    <t>Description 52</t>
+  </si>
+  <si>
+    <t>Description 53</t>
+  </si>
+  <si>
+    <t>Description 54</t>
+  </si>
+  <si>
+    <t>Description 55</t>
+  </si>
+  <si>
+    <t>Description 56</t>
+  </si>
+  <si>
+    <t>Description 57</t>
+  </si>
+  <si>
+    <t>Description 58</t>
+  </si>
+  <si>
+    <t>Description 59</t>
+  </si>
+  <si>
+    <t>Description 60</t>
+  </si>
+  <si>
+    <t>Description 61</t>
+  </si>
+  <si>
+    <t>Description 62</t>
+  </si>
+  <si>
+    <t>Description 63</t>
+  </si>
+  <si>
+    <t>Description 64</t>
+  </si>
+  <si>
+    <t>Description 65</t>
+  </si>
+  <si>
+    <t>Description 66</t>
+  </si>
+  <si>
+    <t>Description 67</t>
+  </si>
+  <si>
+    <t>Description 68</t>
+  </si>
+  <si>
+    <t>Description 69</t>
+  </si>
+  <si>
+    <t>Description 70</t>
+  </si>
+  <si>
+    <t>Description 71</t>
+  </si>
+  <si>
+    <t>Description 72</t>
+  </si>
+  <si>
+    <t>Description 73</t>
+  </si>
+  <si>
+    <t>Description 74</t>
+  </si>
+  <si>
+    <t>Description 75</t>
+  </si>
+  <si>
+    <t>Description 76</t>
+  </si>
+  <si>
+    <t>Description 77</t>
+  </si>
+  <si>
+    <t>Description 78</t>
+  </si>
+  <si>
+    <t>Description 79</t>
+  </si>
+  <si>
+    <t>Description 80</t>
+  </si>
+  <si>
+    <t>Description 81</t>
+  </si>
+  <si>
+    <t>Description 82</t>
+  </si>
+  <si>
+    <t>Description 83</t>
+  </si>
+  <si>
+    <t>Description 84</t>
+  </si>
+  <si>
+    <t>Description 85</t>
+  </si>
+  <si>
+    <t>Description 86</t>
+  </si>
+  <si>
+    <t>Description 87</t>
+  </si>
+  <si>
+    <t>Description 88</t>
+  </si>
+  <si>
+    <t>Description 89</t>
+  </si>
+  <si>
+    <t>Description 90</t>
+  </si>
+  <si>
+    <t>Description 91</t>
+  </si>
+  <si>
+    <t>Description 92</t>
+  </si>
+  <si>
+    <t>Description 93</t>
+  </si>
+  <si>
+    <t>Description 94</t>
+  </si>
+  <si>
+    <t>Description 95</t>
+  </si>
+  <si>
+    <t>Description 96</t>
+  </si>
+  <si>
+    <t>Description 97</t>
+  </si>
+  <si>
+    <t>Description 98</t>
+  </si>
+  <si>
+    <t>Description 99</t>
+  </si>
+  <si>
+    <t>Description 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -691,7 +1296,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C2" sqref="C2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -727,11 +1332,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>645</v>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -752,11 +1357,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>162</v>
-      </c>
-      <c r="C3">
-        <v>185</v>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -772,11 +1377,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>160</v>
-      </c>
-      <c r="C4">
-        <v>731</v>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -792,11 +1397,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>642</v>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -812,11 +1417,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>184</v>
-      </c>
-      <c r="C6">
-        <v>314</v>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -832,11 +1437,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>94</v>
-      </c>
-      <c r="C7">
-        <v>817</v>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -852,11 +1457,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>198</v>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -872,11 +1477,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>173</v>
-      </c>
-      <c r="C9">
-        <v>118</v>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -892,11 +1497,11 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>162</v>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>214</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -912,11 +1517,11 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>314</v>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>215</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -932,11 +1537,11 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>113</v>
-      </c>
-      <c r="C12">
-        <v>365</v>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>216</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -952,11 +1557,11 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>141</v>
-      </c>
-      <c r="C13">
-        <v>257</v>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>217</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -972,11 +1577,11 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>127</v>
-      </c>
-      <c r="C14">
-        <v>486</v>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -992,11 +1597,11 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>94</v>
-      </c>
-      <c r="C15">
-        <v>132</v>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1012,11 +1617,11 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>98</v>
-      </c>
-      <c r="C16">
-        <v>796</v>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1032,11 +1637,11 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>124</v>
-      </c>
-      <c r="C17">
-        <v>754</v>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>221</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1052,11 +1657,11 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>68</v>
-      </c>
-      <c r="C18">
-        <v>249</v>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1072,11 +1677,11 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>310</v>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1092,11 +1697,11 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>135</v>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -1112,11 +1717,11 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>113</v>
-      </c>
-      <c r="C21">
-        <v>40</v>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1132,11 +1737,11 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>51</v>
-      </c>
-      <c r="C22">
-        <v>579</v>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1152,11 +1757,11 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>183</v>
-      </c>
-      <c r="C23">
-        <v>418</v>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -1172,11 +1777,11 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>76</v>
-      </c>
-      <c r="C24">
-        <v>469</v>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -1192,11 +1797,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>81</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
@@ -1212,11 +1817,11 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>179</v>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -1232,11 +1837,11 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>110</v>
-      </c>
-      <c r="C27">
-        <v>591</v>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -1252,11 +1857,11 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>160</v>
-      </c>
-      <c r="C28">
-        <v>596</v>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1272,11 +1877,11 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>141</v>
-      </c>
-      <c r="C29">
-        <v>521</v>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>233</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -1292,11 +1897,11 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>127</v>
-      </c>
-      <c r="C30">
-        <v>93</v>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
+        <v>234</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -1312,11 +1917,11 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>52</v>
-      </c>
-      <c r="C31">
-        <v>62</v>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>235</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -1332,11 +1937,11 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>70</v>
-      </c>
-      <c r="C32">
-        <v>558</v>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -1352,11 +1957,11 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>106</v>
-      </c>
-      <c r="C33">
-        <v>276</v>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>237</v>
       </c>
       <c r="D33" t="s">
         <v>37</v>
@@ -1372,11 +1977,11 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>180</v>
-      </c>
-      <c r="C34">
-        <v>475</v>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>238</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -1392,11 +1997,11 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>27</v>
-      </c>
-      <c r="C35">
-        <v>804</v>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>239</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
@@ -1412,11 +2017,11 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>27</v>
-      </c>
-      <c r="C36">
-        <v>486</v>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>240</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
@@ -1432,11 +2037,11 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>58</v>
-      </c>
-      <c r="C37">
-        <v>74</v>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>241</v>
       </c>
       <c r="D37" t="s">
         <v>41</v>
@@ -1452,11 +2057,11 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>192</v>
-      </c>
-      <c r="C38">
-        <v>623</v>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>242</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
@@ -1472,11 +2077,11 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>132</v>
-      </c>
-      <c r="C39">
-        <v>619</v>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>243</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
@@ -1492,11 +2097,11 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>24</v>
-      </c>
-      <c r="C40">
-        <v>557</v>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s">
+        <v>244</v>
       </c>
       <c r="D40" t="s">
         <v>44</v>
@@ -1512,11 +2117,11 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>57</v>
-      </c>
-      <c r="C41">
-        <v>677</v>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>245</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -1532,11 +2137,11 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>165</v>
-      </c>
-      <c r="C42">
-        <v>467</v>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>246</v>
       </c>
       <c r="D42" t="s">
         <v>46</v>
@@ -1552,11 +2157,11 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>704</v>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>247</v>
       </c>
       <c r="D43" t="s">
         <v>47</v>
@@ -1572,11 +2177,11 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>128</v>
-      </c>
-      <c r="C44">
-        <v>630</v>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>248</v>
       </c>
       <c r="D44" t="s">
         <v>48</v>
@@ -1592,11 +2197,11 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>489</v>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>249</v>
       </c>
       <c r="D45" t="s">
         <v>49</v>
@@ -1612,11 +2217,11 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>79</v>
-      </c>
-      <c r="C46">
-        <v>88</v>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>250</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
@@ -1632,11 +2237,11 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>139</v>
-      </c>
-      <c r="C47">
-        <v>346</v>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>251</v>
       </c>
       <c r="D47" t="s">
         <v>51</v>
@@ -1652,11 +2257,11 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>160</v>
-      </c>
-      <c r="C48">
-        <v>453</v>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>252</v>
       </c>
       <c r="D48" t="s">
         <v>52</v>
@@ -1672,11 +2277,11 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>145</v>
-      </c>
-      <c r="C49">
-        <v>796</v>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>253</v>
       </c>
       <c r="D49" t="s">
         <v>53</v>
@@ -1692,11 +2297,11 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>67</v>
-      </c>
-      <c r="C50">
-        <v>546</v>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
@@ -1712,11 +2317,11 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>84</v>
-      </c>
-      <c r="C51">
-        <v>600</v>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>255</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
@@ -1732,11 +2337,11 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>106</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>256</v>
       </c>
       <c r="D52" t="s">
         <v>56</v>
@@ -1752,11 +2357,11 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>84</v>
-      </c>
-      <c r="C53">
-        <v>390</v>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>257</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
@@ -1772,11 +2377,11 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>112</v>
-      </c>
-      <c r="C54">
-        <v>272</v>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>258</v>
       </c>
       <c r="D54" t="s">
         <v>58</v>
@@ -1792,11 +2397,11 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>42</v>
-      </c>
-      <c r="C55">
-        <v>380</v>
+      <c r="B55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" t="s">
+        <v>259</v>
       </c>
       <c r="D55" t="s">
         <v>59</v>
@@ -1812,11 +2417,11 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <v>157</v>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>260</v>
       </c>
       <c r="D56" t="s">
         <v>60</v>
@@ -1832,11 +2437,11 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>183</v>
-      </c>
-      <c r="C57">
-        <v>645</v>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>261</v>
       </c>
       <c r="D57" t="s">
         <v>61</v>
@@ -1852,11 +2457,11 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>200</v>
-      </c>
-      <c r="C58">
-        <v>639</v>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>262</v>
       </c>
       <c r="D58" t="s">
         <v>62</v>
@@ -1872,11 +2477,11 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>108</v>
-      </c>
-      <c r="C59">
-        <v>307</v>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
       </c>
       <c r="D59" t="s">
         <v>63</v>
@@ -1892,11 +2497,11 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>65</v>
-      </c>
-      <c r="C60">
-        <v>373</v>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>264</v>
       </c>
       <c r="D60" t="s">
         <v>64</v>
@@ -1912,11 +2517,11 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>149</v>
-      </c>
-      <c r="C61">
-        <v>218</v>
+      <c r="B61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>265</v>
       </c>
       <c r="D61" t="s">
         <v>65</v>
@@ -1932,11 +2537,11 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>188</v>
-      </c>
-      <c r="C62">
-        <v>681</v>
+      <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
+        <v>266</v>
       </c>
       <c r="D62" t="s">
         <v>66</v>
@@ -1952,11 +2557,11 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>45</v>
-      </c>
-      <c r="C63">
-        <v>576</v>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
+        <v>267</v>
       </c>
       <c r="D63" t="s">
         <v>67</v>
@@ -1972,11 +2577,11 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>275</v>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" t="s">
+        <v>268</v>
       </c>
       <c r="D64" t="s">
         <v>68</v>
@@ -1992,11 +2597,11 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>41</v>
-      </c>
-      <c r="C65">
-        <v>781</v>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" t="s">
+        <v>269</v>
       </c>
       <c r="D65" t="s">
         <v>69</v>
@@ -2012,11 +2617,11 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>49</v>
-      </c>
-      <c r="C66">
-        <v>780</v>
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>270</v>
       </c>
       <c r="D66" t="s">
         <v>70</v>
@@ -2032,11 +2637,11 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>169</v>
-      </c>
-      <c r="C67">
-        <v>711</v>
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>271</v>
       </c>
       <c r="D67" t="s">
         <v>71</v>
@@ -2052,11 +2657,11 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>8</v>
-      </c>
-      <c r="C68">
-        <v>197</v>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>272</v>
       </c>
       <c r="D68" t="s">
         <v>72</v>
@@ -2072,11 +2677,11 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>89</v>
-      </c>
-      <c r="C69">
-        <v>190</v>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>273</v>
       </c>
       <c r="D69" t="s">
         <v>73</v>
@@ -2092,11 +2697,11 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>158</v>
-      </c>
-      <c r="C70">
-        <v>577</v>
+      <c r="B70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" t="s">
+        <v>274</v>
       </c>
       <c r="D70" t="s">
         <v>74</v>
@@ -2112,11 +2717,11 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>56</v>
-      </c>
-      <c r="C71">
-        <v>335</v>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" t="s">
+        <v>275</v>
       </c>
       <c r="D71" t="s">
         <v>75</v>
@@ -2132,11 +2737,11 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>90</v>
+      <c r="B72" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" t="s">
+        <v>276</v>
       </c>
       <c r="D72" t="s">
         <v>76</v>
@@ -2152,11 +2757,11 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>76</v>
-      </c>
-      <c r="C73">
-        <v>468</v>
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" t="s">
+        <v>277</v>
       </c>
       <c r="D73" t="s">
         <v>77</v>
@@ -2172,11 +2777,11 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>92</v>
-      </c>
-      <c r="C74">
-        <v>693</v>
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" t="s">
+        <v>278</v>
       </c>
       <c r="D74" t="s">
         <v>78</v>
@@ -2192,11 +2797,11 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>80</v>
-      </c>
-      <c r="C75">
-        <v>31</v>
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" t="s">
+        <v>279</v>
       </c>
       <c r="D75" t="s">
         <v>79</v>
@@ -2212,11 +2817,11 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>69</v>
-      </c>
-      <c r="C76">
-        <v>652</v>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>280</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
@@ -2232,11 +2837,11 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>73</v>
-      </c>
-      <c r="C77">
-        <v>475</v>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" t="s">
+        <v>281</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>
@@ -2252,11 +2857,11 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>67</v>
-      </c>
-      <c r="C78">
-        <v>125</v>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" t="s">
+        <v>282</v>
       </c>
       <c r="D78" t="s">
         <v>82</v>
@@ -2272,11 +2877,11 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
         <v>183</v>
       </c>
-      <c r="C79">
-        <v>812</v>
+      <c r="C79" t="s">
+        <v>283</v>
       </c>
       <c r="D79" t="s">
         <v>83</v>
@@ -2292,11 +2897,11 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>57</v>
-      </c>
-      <c r="C80">
-        <v>25</v>
+      <c r="B80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" t="s">
+        <v>284</v>
       </c>
       <c r="D80" t="s">
         <v>84</v>
@@ -2312,11 +2917,11 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>177</v>
-      </c>
-      <c r="C81">
-        <v>416</v>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>285</v>
       </c>
       <c r="D81" t="s">
         <v>85</v>
@@ -2332,11 +2937,11 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>72</v>
-      </c>
-      <c r="C82">
-        <v>776</v>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" t="s">
+        <v>286</v>
       </c>
       <c r="D82" t="s">
         <v>86</v>
@@ -2352,11 +2957,11 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>80</v>
-      </c>
-      <c r="C83">
-        <v>689</v>
+      <c r="B83" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" t="s">
+        <v>287</v>
       </c>
       <c r="D83" t="s">
         <v>87</v>
@@ -2372,11 +2977,11 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>180</v>
-      </c>
-      <c r="C84">
-        <v>503</v>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>288</v>
       </c>
       <c r="D84" t="s">
         <v>88</v>
@@ -2392,11 +2997,11 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>34</v>
-      </c>
-      <c r="C85">
-        <v>271</v>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>289</v>
       </c>
       <c r="D85" t="s">
         <v>89</v>
@@ -2412,11 +3017,11 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>85</v>
-      </c>
-      <c r="C86">
-        <v>523</v>
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" t="s">
+        <v>290</v>
       </c>
       <c r="D86" t="s">
         <v>90</v>
@@ -2432,11 +3037,11 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>119</v>
-      </c>
-      <c r="C87">
-        <v>648</v>
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="s">
+        <v>291</v>
       </c>
       <c r="D87" t="s">
         <v>91</v>
@@ -2452,11 +3057,11 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>128</v>
-      </c>
-      <c r="C88">
-        <v>659</v>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" t="s">
+        <v>292</v>
       </c>
       <c r="D88" t="s">
         <v>92</v>
@@ -2472,11 +3077,11 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>37</v>
-      </c>
-      <c r="C89">
-        <v>595</v>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="s">
+        <v>293</v>
       </c>
       <c r="D89" t="s">
         <v>93</v>
@@ -2492,11 +3097,11 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>148</v>
-      </c>
-      <c r="C90">
-        <v>623</v>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" t="s">
+        <v>294</v>
       </c>
       <c r="D90" t="s">
         <v>94</v>
@@ -2512,11 +3117,11 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>48</v>
-      </c>
-      <c r="C91">
-        <v>8</v>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" t="s">
+        <v>295</v>
       </c>
       <c r="D91" t="s">
         <v>95</v>
@@ -2532,11 +3137,11 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>59</v>
-      </c>
-      <c r="C92">
-        <v>22</v>
+      <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="s">
+        <v>296</v>
       </c>
       <c r="D92" t="s">
         <v>96</v>
@@ -2552,11 +3157,11 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>164</v>
-      </c>
-      <c r="C93">
-        <v>525</v>
+      <c r="B93" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
       </c>
       <c r="D93" t="s">
         <v>97</v>
@@ -2572,11 +3177,11 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>34</v>
-      </c>
-      <c r="C94">
-        <v>71</v>
+      <c r="B94" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" t="s">
+        <v>298</v>
       </c>
       <c r="D94" t="s">
         <v>98</v>
@@ -2592,11 +3197,11 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>131</v>
-      </c>
-      <c r="C95">
-        <v>180</v>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" t="s">
+        <v>299</v>
       </c>
       <c r="D95" t="s">
         <v>99</v>
@@ -2612,11 +3217,11 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>30</v>
-      </c>
-      <c r="C96">
-        <v>833</v>
+      <c r="B96" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" t="s">
+        <v>300</v>
       </c>
       <c r="D96" t="s">
         <v>100</v>
@@ -2632,11 +3237,11 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>198</v>
-      </c>
-      <c r="C97">
-        <v>93</v>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s">
+        <v>301</v>
       </c>
       <c r="D97" t="s">
         <v>101</v>
@@ -2652,11 +3257,11 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>22</v>
-      </c>
-      <c r="C98">
-        <v>686</v>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" t="s">
+        <v>302</v>
       </c>
       <c r="D98" t="s">
         <v>102</v>
@@ -2672,11 +3277,11 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>167</v>
-      </c>
-      <c r="C99">
-        <v>501</v>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" t="s">
+        <v>303</v>
       </c>
       <c r="D99" t="s">
         <v>103</v>
@@ -2692,11 +3297,11 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>120</v>
-      </c>
-      <c r="C100">
-        <v>385</v>
+      <c r="B100" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" t="s">
+        <v>304</v>
       </c>
       <c r="D100" t="s">
         <v>104</v>
@@ -2712,11 +3317,11 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>176</v>
-      </c>
-      <c r="C101">
-        <v>511</v>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s">
+        <v>305</v>
       </c>
       <c r="D101" t="s">
         <v>105</v>
@@ -2729,6 +3334,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>